--- a/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2004 (F04).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Friday Night Magic 2004 (F04).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,434 +444,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Accumulated Knowledge</t>
+          <t>('Accumulated Knowledge', ['{1}{U}', 'Instant', 'Draw a card, then draw cards equal to the number of cards named Accumulated Knowledge in all graveyards.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{1}{U}</t>
+          <t>('Avalanche Riders', ['{3}{R}', 'Creature — Human Nomad', 'Haste', 'Echo {3}{R} (At the beginning of your upkeep, if this came under your control since the beginning of your last upkeep, sacrifice it unless you pay its echo cost.)', 'When Avalanche Riders enters the battlefield, destroy target land.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>('Brainstorm', ['{U}', 'Instant', 'Draw three cards, then put two cards from your hand on top of your library in any order.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Draw a card, then draw cards equal to the number of cards named Accumulated Knowledge in all graveyards.</t>
+          <t>('Carrion Feeder', ['{B}', 'Creature — Zombie', 'Carrion Feeder can’t block.', 'Sacrifice a creature: Put a +1/+1 counter on Carrion Feeder.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Avalanche Riders</t>
+          <t>('Krosan Warchief', ['{2}{G}', 'Creature — Beast', 'Beast spells you cast cost {1} less to cast.', '{1}{G}: Regenerate target Beast.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{3}{R}</t>
+          <t>('Lightning Rift', ['{1}{R}', 'Enchantment', 'Whenever a player cycles a card, you may pay {1}. If you do, Lightning Rift deals 2 damage to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Creature — Human Nomad</t>
+          <t>('Mother of Runes', ['{W}', 'Creature — Human Cleric', '{T}: Target creature you control gains protection from the color of your choice until end of turn.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Haste</t>
+          <t>('Reanimate', ['{B}', 'Sorcery', 'Put target creature card from a graveyard onto the battlefield under your control. You lose life equal to its converted mana cost.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Echo {3}{R} (At the beginning of your upkeep, if this came under your control since the beginning of your last upkeep, sacrifice it unless you pay its echo cost.)</t>
+          <t>('Silver Knight', ['{W}{W}', 'Creature — Human Knight', 'First strike, protection from red', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>When Avalanche Riders enters the battlefield, destroy target land.</t>
+          <t>('Slice and Dice', ['{4}{R}{R}', 'Sorcery', 'Slice and Dice deals 4 damage to each creature.', 'Cycling {2}{R} ({2}{R}, Discard this card: Draw a card.)', 'When you cycle Slice and Dice, you may have it deal 1 damage to each creature.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Treetop Village', ['Land', 'Treetop Village enters the battlefield tapped.', '{T}: Add {G}.', '{1}{G}: Treetop Village becomes a 3/3 green Ape creature with trample until end of turn. It’s still a land. (It can deal excess combat damage to the player or planeswalker it’s attacking.)'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Brainstorm</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Draw three cards, then put two cards from your hand on top of your library in any order.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Carrion Feeder</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Carrion Feeder can’t block.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sacrifice a creature: Put a +1/+1 counter on Carrion Feeder.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Krosan Warchief</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Beast spells you cast cost {1} less to cast.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{1}{G}: Regenerate target Beast.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Lightning Rift</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Whenever a player cycles a card, you may pay {1}. If you do, Lightning Rift deals 2 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Mother of Runes</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Creature — Human Cleric</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{T}: Target creature you control gains protection from the color of your choice until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Reanimate</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Put target creature card from a graveyard onto the battlefield under your control. You lose life equal to its converted mana cost.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Silver Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Creature — Human Knight</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>First strike, protection from red</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Slice and Dice</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>{4}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Slice and Dice deals 4 damage to each creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Cycling {2}{R} ({2}{R}, Discard this card: Draw a card.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>When you cycle Slice and Dice, you may have it deal 1 damage to each creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Treetop Village</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Treetop Village enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>{T}: Add {G}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>{1}{G}: Treetop Village becomes a 3/3 green Ape creature with trample until end of turn. It’s still a land. (It can deal excess combat damage to the player or planeswalker it’s attacking.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Willbender</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Creature — Human Wizard</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Morph {1}{U} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>When Willbender is turned face up, change the target of target spell or ability with a single target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>1/2</t>
+          <t>('Willbender', ['{1}{U}', 'Creature — Human Wizard', 'Morph {1}{U} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)', 'When Willbender is turned face up, change the target of target spell or ability with a single target.', '1/2'])</t>
         </is>
       </c>
     </row>
